--- a/testfiles/PipelineAnalysisTemplate.xlsx
+++ b/testfiles/PipelineAnalysisTemplate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\potterst\Documents\CompOrg\Fall_2018\Day23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ELC3338\Team9\ARM-Lab_Spring2019_S1_P2_Team9\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F09A439-B750-47E6-B0C6-6E76213E1A51}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="55">
   <si>
     <t>Fetch</t>
   </si>
@@ -171,12 +172,30 @@
   </si>
   <si>
     <t>6. You must use the naming convention shown in the examples.  The convention includes the output signal having a suffix that indicates which stage produced the signal</t>
+  </si>
+  <si>
+    <t>branch_ie</t>
+  </si>
+  <si>
+    <t>iE/iM</t>
+  </si>
+  <si>
+    <t>uncondbranch_ie</t>
+  </si>
+  <si>
+    <t>read_data2_ie</t>
+  </si>
+  <si>
+    <t>mem_read_ie</t>
+  </si>
+  <si>
+    <t>mem_write_ie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -485,6 +504,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,11 +524,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,11 +803,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,8 +819,8 @@
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
@@ -816,36 +835,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="25" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="25" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="25" t="s">
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="25" t="s">
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="29"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="34"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1076,10 +1095,10 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="21"/>
@@ -1102,10 +1121,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="21"/>
@@ -1151,9 +1170,15 @@
       <c r="G11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="1"/>
+      <c r="H11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="8"/>
       <c r="M11" s="6"/>
@@ -1175,13 +1200,23 @@
       <c r="G12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
+      <c r="H12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
+      <c r="K12" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="L12" s="22"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
+      <c r="M12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="O12" s="1"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="6"/>
@@ -1199,13 +1234,23 @@
       <c r="G13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
+      <c r="H13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
+      <c r="K13" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="L13" s="22"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
+      <c r="M13" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="O13" s="1"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="6"/>
@@ -1223,13 +1268,23 @@
       <c r="G14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
+      <c r="H14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
+      <c r="K14" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="L14" s="22"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
+      <c r="M14" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="6"/>
@@ -1293,9 +1348,15 @@
       <c r="G16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="1"/>
+      <c r="H16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="8"/>
       <c r="M16" s="6"/>
@@ -1317,13 +1378,23 @@
       <c r="G17" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
+      <c r="H17" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+      <c r="K17" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="L17" s="22"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
+      <c r="M17" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="O17" s="1"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="6"/>
@@ -1341,9 +1412,15 @@
       <c r="G18" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="21"/>
+      <c r="H18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
       <c r="M18" s="23"/>
@@ -1365,9 +1442,15 @@
       <c r="G19" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
+      <c r="H19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="K19" s="21"/>
       <c r="L19" s="22"/>
       <c r="M19" s="23"/>
@@ -1389,13 +1472,23 @@
       <c r="G20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="H20" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
+      <c r="M20" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="O20" s="1"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="6"/>
@@ -1413,9 +1506,15 @@
       <c r="G21" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="21"/>
+      <c r="H21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
       <c r="M21" s="23"/>
@@ -1600,19 +1699,19 @@
       <c r="T29" s="11"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
+      <c r="A31" s="25"/>
       <c r="C31" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
+      <c r="A32" s="26"/>
       <c r="C32" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
+      <c r="A33" s="27"/>
       <c r="C33" t="s">
         <v>40</v>
       </c>

--- a/testfiles/PipelineAnalysisTemplate.xlsx
+++ b/testfiles/PipelineAnalysisTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ELC3338\Team9\ARM-Lab_Spring2019_S1_P2_Team9\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F09A439-B750-47E6-B0C6-6E76213E1A51}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49464D85-CD1E-47BA-8544-78721769D4A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
   <si>
     <t>Fetch</t>
   </si>
@@ -807,7 +807,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,9 +1580,15 @@
       <c r="K24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="22"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="21"/>
+      <c r="L24" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="O24" s="21"/>
       <c r="P24" s="22"/>
       <c r="Q24" s="21"/>

--- a/testfiles/PipelineAnalysisTemplate.xlsx
+++ b/testfiles/PipelineAnalysisTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ELC3338\Team9\ARM-Lab_Spring2019_S1_P2_Team9\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49464D85-CD1E-47BA-8544-78721769D4A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE74F0B-5000-404A-9297-EC6A121A99B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
   <si>
     <t>Fetch</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Write Back</t>
   </si>
   <si>
-    <t>zero</t>
-  </si>
-  <si>
     <t>alu_result</t>
   </si>
   <si>
@@ -190,6 +187,12 @@
   </si>
   <si>
     <t>mem_write_ie</t>
+  </si>
+  <si>
+    <t>zero_ie</t>
+  </si>
+  <si>
+    <t>alu_result_ie</t>
   </si>
 </sst>
 </file>
@@ -807,7 +810,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,69 +874,69 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="20"/>
@@ -948,10 +951,10 @@
       <c r="M3" s="18"/>
       <c r="N3" s="19"/>
       <c r="O3" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="2"/>
@@ -960,10 +963,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
@@ -988,46 +991,46 @@
       <c r="A5" s="6"/>
       <c r="B5" s="1"/>
       <c r="C5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="H5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="J5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="K5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="L5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="M5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="N5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="O5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="P5" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="17" t="s">
-        <v>15</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="1"/>
@@ -1038,16 +1041,16 @@
       <c r="A6" s="6"/>
       <c r="B6" s="1"/>
       <c r="C6" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="8"/>
@@ -1070,10 +1073,10 @@
       <c r="C7" s="1"/>
       <c r="D7" s="8"/>
       <c r="E7" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="22"/>
@@ -1096,10 +1099,10 @@
       <c r="C8" s="1"/>
       <c r="D8" s="8"/>
       <c r="E8" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="22"/>
@@ -1122,10 +1125,10 @@
       <c r="C9" s="1"/>
       <c r="D9" s="8"/>
       <c r="E9" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="22"/>
@@ -1168,16 +1171,16 @@
       <c r="E11" s="6"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="8"/>
@@ -1198,24 +1201,24 @@
       <c r="E12" s="6"/>
       <c r="F12" s="1"/>
       <c r="G12" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L12" s="22"/>
       <c r="M12" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="8"/>
@@ -1232,24 +1235,24 @@
       <c r="E13" s="6"/>
       <c r="F13" s="1"/>
       <c r="G13" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="22"/>
       <c r="M13" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="8"/>
@@ -1266,24 +1269,24 @@
       <c r="E14" s="6"/>
       <c r="F14" s="1"/>
       <c r="G14" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L14" s="22"/>
       <c r="M14" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="8"/>
@@ -1300,40 +1303,40 @@
       <c r="E15" s="6"/>
       <c r="F15" s="1"/>
       <c r="G15" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="15" t="s">
+      <c r="P15" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="R15" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="11"/>
@@ -1346,16 +1349,16 @@
       <c r="E16" s="6"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="8"/>
@@ -1376,24 +1379,24 @@
       <c r="E17" s="6"/>
       <c r="F17" s="1"/>
       <c r="G17" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L17" s="22"/>
       <c r="M17" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="8"/>
@@ -1410,16 +1413,16 @@
       <c r="E18" s="6"/>
       <c r="F18" s="1"/>
       <c r="G18" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
@@ -1440,16 +1443,16 @@
       <c r="E19" s="6"/>
       <c r="F19" s="1"/>
       <c r="G19" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K19" s="21"/>
       <c r="L19" s="22"/>
@@ -1470,24 +1473,24 @@
       <c r="E20" s="6"/>
       <c r="F20" s="1"/>
       <c r="G20" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="M20" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="8"/>
@@ -1504,16 +1507,16 @@
       <c r="E21" s="6"/>
       <c r="F21" s="1"/>
       <c r="G21" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
@@ -1578,16 +1581,16 @@
       <c r="I24" s="6"/>
       <c r="J24" s="1"/>
       <c r="K24" s="21" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O24" s="21"/>
       <c r="P24" s="22"/>
@@ -1608,11 +1611,17 @@
       <c r="I25" s="6"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="O25" s="1"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="6"/>
@@ -1707,54 +1716,54 @@
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/testfiles/PipelineAnalysisTemplate.xlsx
+++ b/testfiles/PipelineAnalysisTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ELC3338\Team9\ARM-Lab_Spring2019_S1_P2_Team9\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE74F0B-5000-404A-9297-EC6A121A99B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D783FF8-6E88-4FAC-A1C7-E19813BB5923}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="56">
   <si>
     <t>Fetch</t>
   </si>
@@ -810,7 +810,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,8 +976,12 @@
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
+      <c r="K4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="M4" s="6"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>

--- a/testfiles/PipelineAnalysisTemplate.xlsx
+++ b/testfiles/PipelineAnalysisTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ELC3338\Team9\ARM-Lab_Spring2019_S1_P2_Team9\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D783FF8-6E88-4FAC-A1C7-E19813BB5923}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCD04BE-9B1C-4EE6-A944-61339C674CD4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="62">
   <si>
     <t>Fetch</t>
   </si>
@@ -193,6 +193,24 @@
   </si>
   <si>
     <t>alu_result_ie</t>
+  </si>
+  <si>
+    <t>write_register_id</t>
+  </si>
+  <si>
+    <t>reg_write_id</t>
+  </si>
+  <si>
+    <t>write_register_ie</t>
+  </si>
+  <si>
+    <t>reg_write_ie</t>
+  </si>
+  <si>
+    <t>write_register_im</t>
+  </si>
+  <si>
+    <t>reg_write_im</t>
   </si>
 </sst>
 </file>
@@ -481,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -506,7 +524,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -810,7 +827,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,36 +855,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="30" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="30" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="30" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="34"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="33"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1082,72 +1099,116 @@
       <c r="F7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="24"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7" s="20" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="24"/>
+      <c r="G8" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="28"/>
+      <c r="M8" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="24"/>
+      <c r="G9" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" s="28" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -1488,7 +1549,9 @@
       <c r="J20" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="21"/>
+      <c r="K20" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="L20" s="22"/>
       <c r="M20" s="21" t="s">
         <v>51</v>
@@ -1718,19 +1781,19 @@
       <c r="T29" s="11"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
+      <c r="A31" s="24"/>
       <c r="C31" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
+      <c r="A32" s="25"/>
       <c r="C32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
+      <c r="A33" s="26"/>
       <c r="C33" t="s">
         <v>39</v>
       </c>

--- a/testfiles/PipelineAnalysisTemplate.xlsx
+++ b/testfiles/PipelineAnalysisTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ELC3338\Team9\ARM-Lab_Spring2019_S1_P2_Team9\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCD04BE-9B1C-4EE6-A944-61339C674CD4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FDF84A-C7B3-4381-883E-9D8549C58C33}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="62">
   <si>
     <t>Fetch</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Write Back</t>
   </si>
   <si>
-    <t>alu_result</t>
-  </si>
-  <si>
     <t>pc_src</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>instruction_if</t>
   </si>
   <si>
-    <t>sign_extended_output_ie</t>
-  </si>
-  <si>
     <t>Indicates examples that I've already completed for you</t>
   </si>
   <si>
@@ -211,6 +205,12 @@
   </si>
   <si>
     <t>reg_write_im</t>
+  </si>
+  <si>
+    <t>sign_extended_output_id</t>
+  </si>
+  <si>
+    <t>read_data_im</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,69 +891,69 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="20"/>
@@ -968,10 +968,10 @@
       <c r="M3" s="18"/>
       <c r="N3" s="19"/>
       <c r="O3" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="2"/>
@@ -980,10 +980,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
@@ -994,10 +994,10 @@
       <c r="I4" s="14"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>10</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="1"/>
@@ -1012,46 +1012,46 @@
       <c r="A5" s="6"/>
       <c r="B5" s="1"/>
       <c r="C5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="H5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="J5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="L5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="M5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="N5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="O5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="P5" s="17" t="s">
         <v>13</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="17" t="s">
-        <v>14</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="1"/>
@@ -1062,16 +1062,16 @@
       <c r="A6" s="6"/>
       <c r="B6" s="1"/>
       <c r="C6" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="8"/>
@@ -1094,10 +1094,10 @@
       <c r="C7" s="1"/>
       <c r="D7" s="8"/>
       <c r="E7" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="20"/>
@@ -1112,10 +1112,10 @@
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
       <c r="S7" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T7" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1124,44 +1124,44 @@
       <c r="C8" s="1"/>
       <c r="D8" s="8"/>
       <c r="E8" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J8" s="28"/>
       <c r="K8" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L8" s="28"/>
       <c r="M8" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N8" s="28"/>
       <c r="O8" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P8" s="28"/>
       <c r="Q8" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R8" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S8" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T8" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1170,44 +1170,44 @@
       <c r="C9" s="1"/>
       <c r="D9" s="8"/>
       <c r="E9" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J9" s="28"/>
       <c r="K9" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N9" s="28"/>
       <c r="O9" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P9" s="28"/>
       <c r="Q9" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R9" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S9" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T9" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1236,16 +1236,16 @@
       <c r="E11" s="6"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="8"/>
@@ -1266,24 +1266,24 @@
       <c r="E12" s="6"/>
       <c r="F12" s="1"/>
       <c r="G12" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L12" s="22"/>
       <c r="M12" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="8"/>
@@ -1300,24 +1300,24 @@
       <c r="E13" s="6"/>
       <c r="F13" s="1"/>
       <c r="G13" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L13" s="22"/>
       <c r="M13" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="8"/>
@@ -1334,24 +1334,24 @@
       <c r="E14" s="6"/>
       <c r="F14" s="1"/>
       <c r="G14" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L14" s="22"/>
       <c r="M14" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="8"/>
@@ -1368,40 +1368,40 @@
       <c r="E15" s="6"/>
       <c r="F15" s="1"/>
       <c r="G15" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="15" t="s">
+      <c r="P15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="P15" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q15" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="R15" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="11"/>
@@ -1414,16 +1414,16 @@
       <c r="E16" s="6"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="8"/>
@@ -1444,24 +1444,24 @@
       <c r="E17" s="6"/>
       <c r="F17" s="1"/>
       <c r="G17" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L17" s="22"/>
       <c r="M17" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="8"/>
@@ -1478,16 +1478,16 @@
       <c r="E18" s="6"/>
       <c r="F18" s="1"/>
       <c r="G18" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
@@ -1508,16 +1508,16 @@
       <c r="E19" s="6"/>
       <c r="F19" s="1"/>
       <c r="G19" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K19" s="21"/>
       <c r="L19" s="22"/>
@@ -1538,26 +1538,26 @@
       <c r="E20" s="6"/>
       <c r="F20" s="1"/>
       <c r="G20" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="21" t="s">
         <v>49</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="21" t="s">
-        <v>51</v>
       </c>
       <c r="L20" s="22"/>
       <c r="M20" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="8"/>
@@ -1574,16 +1574,16 @@
       <c r="E21" s="6"/>
       <c r="F21" s="1"/>
       <c r="G21" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
@@ -1625,10 +1625,18 @@
       <c r="H23" s="8"/>
       <c r="I23" s="6"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="1"/>
+      <c r="K23" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="O23" s="1"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="6"/>
@@ -1647,17 +1655,17 @@
       <c r="H24" s="8"/>
       <c r="I24" s="6"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="N24" s="21" t="s">
+      <c r="K24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="8" t="s">
         <v>12</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="O24" s="21"/>
       <c r="P24" s="22"/>
@@ -1677,18 +1685,6 @@
       <c r="H25" s="8"/>
       <c r="I25" s="6"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="O25" s="1"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="6"/>
@@ -1711,10 +1707,18 @@
       <c r="L26" s="8"/>
       <c r="M26" s="6"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="1"/>
+      <c r="O26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="S26" s="1"/>
       <c r="T26" s="11"/>
     </row>
@@ -1783,54 +1787,54 @@
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/testfiles/PipelineAnalysisTemplate.xlsx
+++ b/testfiles/PipelineAnalysisTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ELC3338\Team9\ARM-Lab_Spring2019_S1_P2_Team9\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FDF84A-C7B3-4381-883E-9D8549C58C33}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED5CB28-1343-4BFD-82C1-F1A14FB3F2D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="64">
   <si>
     <t>Fetch</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>read_data_im</t>
+  </si>
+  <si>
+    <t>iM/iW</t>
+  </si>
+  <si>
+    <t>alu_result_im</t>
   </si>
 </sst>
 </file>
@@ -827,7 +833,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,7 +1635,7 @@
         <v>53</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="M23" s="21" t="s">
         <v>53</v>
@@ -1637,10 +1643,16 @@
       <c r="N23" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="O23" s="1"/>
+      <c r="O23" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="P23" s="8"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="1"/>
+      <c r="Q23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="S23" s="1"/>
       <c r="T23" s="11"/>
     </row>
